--- a/data/trans_camb/P10_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 15,72</t>
+          <t>-9,46; 16,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 13,43</t>
+          <t>-13,0; 11,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 12,16</t>
+          <t>-9,35; 9,06</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>0,49%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 27,79</t>
+          <t>-12,35; 27,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 26,99</t>
+          <t>-18,33; 19,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 22,31</t>
+          <t>-12,44; 14,39</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 7,36</t>
+          <t>-8,51; 8,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,37</t>
+          <t>-6,55; 6,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,47</t>
+          <t>-5,77; 4,84</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>-0,43%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 8,87</t>
+          <t>-9,51; 11,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,48</t>
+          <t>-7,17; 8,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,54</t>
+          <t>-6,52; 5,67</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,94</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,81</t>
+          <t>-8,7; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,08</t>
+          <t>-2,66; 3,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 0,88</t>
+          <t>-4,79; 2,32</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>-0,98%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,77</t>
+          <t>-9,03; 4,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,26</t>
+          <t>-2,7; 3,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 0,92</t>
+          <t>-4,94; 2,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 4,85</t>
+          <t>-4,26; 5,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 5,62</t>
+          <t>-1,89; 7,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,29</t>
+          <t>-1,49; 5,23</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,79</t>
+          <t>-5,03; 6,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 7,07</t>
+          <t>-2,4; 9,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,43</t>
+          <t>-1,83; 6,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 4,29</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 5,46</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 3,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 5,15</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 6,86</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 4,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P10_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P10_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.318294300330205</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2213982600290154</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.490296216701981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 16,49</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,0; 11,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,35; 9,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.623662465451613</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.46330493122739</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.881629843624366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,2%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.45361301114379</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.68696125523929</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.28060651600598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-12,35; 27,88</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,33; 19,52</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,44; 14,39</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.04736433765412976</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.003350488704990178</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02194009402507036</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1143285230578533</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1594394451880566</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.109149889449974</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 8,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,55; 6,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 4,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2784852972232431</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.2205196685329855</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1632294197202515</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,28%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,56%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,43%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.2037081851983591</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.08899968515974077</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1376625448721969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,51; 11,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 8,04</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,52; 5,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.837188270182087</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.41950003220684</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.849319500607479</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.176977055819847</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.161053433001413</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.329658954626379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,7; 4,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 3,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 2,32</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.002357755211593634</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.001018194230851556</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.001583638180015843</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,09%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.08683603941561793</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.06002710722702841</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.05381783380994194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,03; 4,61</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 3,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 2,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.115239048057505</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.08693149519821404</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.06403800817746751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.810822784825361</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.131537081100741</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.8574987834009673</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 5,5</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 7,3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 5,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.14477589120963</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-2.560121389208958</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.7560494608962</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.572736689581937</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.087182685279421</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.391436175262028</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 6,72</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 9,92</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 6,65</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.01901805589109733</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.001357907806725244</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.008922493760661924</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.08474832873032648</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.02593383134280831</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.04855304728130064</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 4,29</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 5,46</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 3,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.050276596527351</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.03265083484631468</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02548884867539563</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.2854435633686481</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.2364955665215773</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.009278476244301004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 5,15</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-0,8; 6,86</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 4,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.91219169277784</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.000092528697031</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.323825803696885</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.333928381607552</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.089148579495516</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.357456942133061</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.00329471491194197</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.002717005391929347</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.0001068305213113892</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.05486460118050289</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.04500524802460347</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.03748722895627101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.06380526154608207</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.04828147399333346</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.03926663194958113</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
